--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H2">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J2">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N2">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O2">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P2">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q2">
-        <v>222.9400753997964</v>
+        <v>6.904655065545</v>
       </c>
       <c r="R2">
-        <v>2006.460678598167</v>
+        <v>62.14189558990499</v>
       </c>
       <c r="S2">
-        <v>0.02376758438990295</v>
+        <v>0.003038070525229358</v>
       </c>
       <c r="T2">
-        <v>0.02376758438990295</v>
+        <v>0.003038070525229358</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H3">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J3">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>11.163547</v>
       </c>
       <c r="O3">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P3">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q3">
-        <v>389.9605621063823</v>
+        <v>268.914966221849</v>
       </c>
       <c r="R3">
-        <v>3509.645058957441</v>
+        <v>2420.234695996641</v>
       </c>
       <c r="S3">
-        <v>0.04157359573856993</v>
+        <v>0.1183234535130484</v>
       </c>
       <c r="T3">
-        <v>0.04157359573856993</v>
+        <v>0.1183234535130484</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>104.794801</v>
+        <v>72.266001</v>
       </c>
       <c r="H4">
-        <v>314.384403</v>
+        <v>216.798003</v>
       </c>
       <c r="I4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="J4">
-        <v>0.3872421191355361</v>
+        <v>0.2949652269937106</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N4">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O4">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P4">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q4">
-        <v>3019.432620337609</v>
+        <v>394.550974723704</v>
       </c>
       <c r="R4">
-        <v>27174.89358303849</v>
+        <v>3550.958772513336</v>
       </c>
       <c r="S4">
-        <v>0.3219009390070632</v>
+        <v>0.1736037029554328</v>
       </c>
       <c r="T4">
-        <v>0.3219009390070632</v>
+        <v>0.1736037029554328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,43 +723,43 @@
         <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J5">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N5">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O5">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P5">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q5">
-        <v>290.7607152807647</v>
+        <v>13.05855994307</v>
       </c>
       <c r="R5">
-        <v>2616.846437526883</v>
+        <v>117.52703948763</v>
       </c>
       <c r="S5">
-        <v>0.03099792545288801</v>
+        <v>0.005745808543420737</v>
       </c>
       <c r="T5">
-        <v>0.03099792545288801</v>
+        <v>0.005745808543420738</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J6">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>11.163547</v>
       </c>
       <c r="O6">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P6">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q6">
-        <v>508.5905338733207</v>
+        <v>508.5905338733206</v>
       </c>
       <c r="R6">
-        <v>4577.314804859887</v>
+        <v>4577.314804859885</v>
       </c>
       <c r="S6">
-        <v>0.05422070667224232</v>
+        <v>0.223781477235784</v>
       </c>
       <c r="T6">
-        <v>0.05422070667224232</v>
+        <v>0.223781477235784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>410.0233380000001</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5050451128841345</v>
+        <v>0.5578585839920717</v>
       </c>
       <c r="J7">
-        <v>0.5050451128841343</v>
+        <v>0.5578585839920718</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N7">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O7">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P7">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q7">
-        <v>3937.974753336963</v>
+        <v>746.2020195239838</v>
       </c>
       <c r="R7">
-        <v>35441.77278003267</v>
+        <v>6715.818175715855</v>
       </c>
       <c r="S7">
-        <v>0.4198264807590041</v>
+        <v>0.3283312982128669</v>
       </c>
       <c r="T7">
-        <v>0.419826480759004</v>
+        <v>0.3283312982128671</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H8">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J8">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.127396333333333</v>
+        <v>0.09554499999999999</v>
       </c>
       <c r="N8">
-        <v>6.382189</v>
+        <v>0.286635</v>
       </c>
       <c r="O8">
-        <v>0.06137654768277985</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="P8">
-        <v>0.06137654768277986</v>
+        <v>0.01029975823317688</v>
       </c>
       <c r="Q8">
-        <v>62.01157216230045</v>
+        <v>3.445154635215</v>
       </c>
       <c r="R8">
-        <v>558.104149460704</v>
+        <v>31.006391716935</v>
       </c>
       <c r="S8">
-        <v>0.006611037839988901</v>
+        <v>0.001515879164526786</v>
       </c>
       <c r="T8">
-        <v>0.006611037839988901</v>
+        <v>0.001515879164526786</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H9">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J9">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>11.163547</v>
       </c>
       <c r="O9">
-        <v>0.1073581454191428</v>
+        <v>0.4011437372432085</v>
       </c>
       <c r="P9">
-        <v>0.1073581454191429</v>
+        <v>0.4011437372432086</v>
       </c>
       <c r="Q9">
-        <v>108.4689125279324</v>
+        <v>134.178120929023</v>
       </c>
       <c r="R9">
-        <v>976.220212751392</v>
+        <v>1207.603088361207</v>
       </c>
       <c r="S9">
-        <v>0.01156384300833061</v>
+        <v>0.05903880649437614</v>
       </c>
       <c r="T9">
-        <v>0.01156384300833061</v>
+        <v>0.05903880649437614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>29.14904533333333</v>
+        <v>36.057927</v>
       </c>
       <c r="H10">
-        <v>87.447136</v>
+        <v>108.173781</v>
       </c>
       <c r="I10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="J10">
-        <v>0.1077127679803296</v>
+        <v>0.1471761890142177</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>28.81280933333333</v>
+        <v>5.459703999999999</v>
       </c>
       <c r="N10">
-        <v>86.438428</v>
+        <v>16.379112</v>
       </c>
       <c r="O10">
-        <v>0.8312653068980772</v>
+        <v>0.5885565045236145</v>
       </c>
       <c r="P10">
-        <v>0.8312653068980773</v>
+        <v>0.5885565045236146</v>
       </c>
       <c r="Q10">
-        <v>839.8658854380232</v>
+        <v>196.865608273608</v>
       </c>
       <c r="R10">
-        <v>7558.792968942208</v>
+        <v>1771.790474462472</v>
       </c>
       <c r="S10">
-        <v>0.08953788713201004</v>
+        <v>0.08662150335531477</v>
       </c>
       <c r="T10">
-        <v>0.08953788713201004</v>
+        <v>0.08662150335531478</v>
       </c>
     </row>
   </sheetData>
